--- a/Для сайта/rule.xlsx
+++ b/Для сайта/rule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Projects\380-25_Ivanovo_TEC\Для сайта\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF14115F-F3A5-48E1-8302-A7CE8E6733CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800F6451-9589-490F-9E90-DDDC6DEC9B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>row</t>
   </si>
@@ -138,6 +138,21 @@
   </si>
   <si>
     <t>se0023</t>
+  </si>
+  <si>
+    <t>se0024</t>
+  </si>
+  <si>
+    <t>se0025</t>
+  </si>
+  <si>
+    <t>se0026</t>
+  </si>
+  <si>
+    <t>se0027</t>
+  </si>
+  <si>
+    <t>se0028</t>
   </si>
 </sst>
 </file>
@@ -464,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,10 +836,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F20" s="1"/>
       <c r="H20" t="s">
@@ -894,6 +909,88 @@
         <v>51</v>
       </c>
       <c r="H24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>65</v>
+      </c>
+      <c r="F25">
+        <v>140</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>180</v>
+      </c>
+      <c r="H27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>180</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Для сайта/rule.xlsx
+++ b/Для сайта/rule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Projects\380-25_Ivanovo_TEC\Для сайта\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800F6451-9589-490F-9E90-DDDC6DEC9B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A93CDD4-7106-420A-9D86-BF6A6231683A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>row</t>
   </si>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t>se0028</t>
+  </si>
+  <si>
+    <t>se0038</t>
+  </si>
+  <si>
+    <t>se0039</t>
+  </si>
+  <si>
+    <t>se0040</t>
+  </si>
+  <si>
+    <t>AmDo</t>
   </si>
 </sst>
 </file>
@@ -479,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,7 +784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -792,7 +804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -810,7 +822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -828,7 +840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -846,7 +858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -864,7 +876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -878,7 +890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -895,7 +907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -912,7 +924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -932,7 +944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -946,7 +958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -963,7 +975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -980,7 +992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -992,6 +1004,63 @@
       </c>
       <c r="H29" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <v>35</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="H31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>42</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
